--- a/biology/Zoologie/Hemaris_thysbe/Hemaris_thysbe.xlsx
+++ b/biology/Zoologie/Hemaris_thysbe/Hemaris_thysbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphinx colibri
 Le Sphinx colibri (Hemaris thysbe) est une espèce nord-américaine de lépidoptères (papillons) de la famille des Sphingidae. 
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend de l'Alaska et du sud des Territoires du Nord-Ouest jusqu'à la Colombie-Britannique et l'Oregon, à l'est dans les Grandes Plaines et la région des Grands Lacs dans le Maine et à Terre-Neuve ; au sud de la Floride et du Texas. 
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago a une envergure de sept centimètres ; il est parfois confondu avec les colibris ou les abeilles en raison de ses ailes en mouvement rapide et de leur coloration. Cela vaut à l'espèce le nom français de « Sphinx colibri » (nom aussi employé en Europe pour désigner une autre espèce, Macroglossum stellatarum).
 			Hemaris thysbe ♂
@@ -578,7 +594,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles mangent viorne, aubépine, chèvrefeuille, et quelques espèces d'arbres fruitiers.
 </t>
